--- a/config_3.9/shoping_config_cjj.xlsx
+++ b/config_3.9/shoping_config_cjj.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -11849,11 +11849,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN579"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q524" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="W375" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G530" sqref="G530"/>
+      <selection pane="bottomRight" activeCell="Y390" sqref="Y390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -36009,615 +36009,615 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="5">
+    <row r="386" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="21">
         <v>385</v>
       </c>
-      <c r="B386" s="5">
+      <c r="B386" s="21">
         <v>10302</v>
       </c>
-      <c r="F386" s="5">
-        <v>1</v>
-      </c>
-      <c r="G386" s="5" t="s">
+      <c r="F386" s="21">
+        <v>1</v>
+      </c>
+      <c r="G386" s="21" t="s">
         <v>1138</v>
       </c>
-      <c r="I386" s="5" t="s">
+      <c r="I386" s="21" t="s">
         <v>1142</v>
       </c>
-      <c r="J386" s="5" t="s">
+      <c r="J386" s="21" t="s">
         <v>1145</v>
       </c>
-      <c r="L386" s="5">
+      <c r="L386" s="21">
         <v>-31</v>
       </c>
-      <c r="M386" s="5">
-        <v>0</v>
-      </c>
-      <c r="N386" s="5">
-        <v>0</v>
-      </c>
-      <c r="O386" s="5" t="s">
+      <c r="M386" s="21">
+        <v>0</v>
+      </c>
+      <c r="N386" s="21">
+        <v>0</v>
+      </c>
+      <c r="O386" s="21" t="s">
         <v>1154</v>
       </c>
-      <c r="P386" s="5">
+      <c r="P386" s="21">
         <v>1800</v>
       </c>
-      <c r="Q386" s="5" t="s">
+      <c r="Q386" s="21" t="s">
         <v>1155</v>
       </c>
-      <c r="R386" s="10" t="s">
+      <c r="R386" s="39" t="s">
         <v>1773</v>
       </c>
-      <c r="W386" s="5" t="s">
+      <c r="W386" s="21" t="s">
         <v>1167</v>
       </c>
-      <c r="X386" s="5">
+      <c r="X386" s="21">
         <v>9999999</v>
       </c>
-      <c r="Y386" s="5">
-        <v>1608595200</v>
-      </c>
-      <c r="Z386" s="5">
-        <v>1609171199</v>
-      </c>
-      <c r="AA386" s="5">
+      <c r="Y386" s="21">
+        <v>1615248000</v>
+      </c>
+      <c r="Z386" s="21">
+        <v>1615823999</v>
+      </c>
+      <c r="AA386" s="21">
         <v>44</v>
       </c>
-      <c r="AH386" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI386" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL386" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM386" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="5">
+      <c r="AH386" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI386" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL386" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM386" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="21">
         <v>386</v>
       </c>
-      <c r="B387" s="5">
+      <c r="B387" s="21">
         <v>10303</v>
       </c>
-      <c r="F387" s="5">
-        <v>1</v>
-      </c>
-      <c r="G387" s="5" t="s">
+      <c r="F387" s="21">
+        <v>1</v>
+      </c>
+      <c r="G387" s="21" t="s">
         <v>1139</v>
       </c>
-      <c r="I387" s="5" t="s">
+      <c r="I387" s="21" t="s">
         <v>1142</v>
       </c>
-      <c r="J387" s="5" t="s">
+      <c r="J387" s="21" t="s">
         <v>1146</v>
       </c>
-      <c r="L387" s="5">
+      <c r="L387" s="21">
         <v>-31</v>
       </c>
-      <c r="M387" s="5">
-        <v>0</v>
-      </c>
-      <c r="N387" s="5">
-        <v>0</v>
-      </c>
-      <c r="O387" s="5" t="s">
+      <c r="M387" s="21">
+        <v>0</v>
+      </c>
+      <c r="N387" s="21">
+        <v>0</v>
+      </c>
+      <c r="O387" s="21" t="s">
         <v>1154</v>
       </c>
-      <c r="P387" s="5">
+      <c r="P387" s="21">
         <v>3000</v>
       </c>
-      <c r="Q387" s="5" t="s">
+      <c r="Q387" s="21" t="s">
         <v>1157</v>
       </c>
-      <c r="R387" s="10" t="s">
+      <c r="R387" s="39" t="s">
         <v>1774</v>
       </c>
-      <c r="W387" s="5" t="s">
+      <c r="W387" s="21" t="s">
         <v>1167</v>
       </c>
-      <c r="X387" s="5">
+      <c r="X387" s="21">
         <v>9999999</v>
       </c>
-      <c r="Y387" s="5">
-        <v>1608595200</v>
-      </c>
-      <c r="Z387" s="5">
-        <v>1609171199</v>
-      </c>
-      <c r="AA387" s="5">
+      <c r="Y387" s="21">
+        <v>1615248000</v>
+      </c>
+      <c r="Z387" s="21">
+        <v>1615823999</v>
+      </c>
+      <c r="AA387" s="21">
         <v>44</v>
       </c>
-      <c r="AH387" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI387" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL387" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM387" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="5">
+      <c r="AH387" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI387" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL387" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM387" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="21">
         <v>387</v>
       </c>
-      <c r="B388" s="5">
+      <c r="B388" s="21">
         <v>10304</v>
       </c>
-      <c r="F388" s="5">
-        <v>1</v>
-      </c>
-      <c r="G388" s="5" t="s">
+      <c r="F388" s="21">
+        <v>1</v>
+      </c>
+      <c r="G388" s="21" t="s">
         <v>1140</v>
       </c>
-      <c r="I388" s="5" t="s">
+      <c r="I388" s="21" t="s">
         <v>1142</v>
       </c>
-      <c r="J388" s="5" t="s">
+      <c r="J388" s="21" t="s">
         <v>1147</v>
       </c>
-      <c r="L388" s="5">
+      <c r="L388" s="21">
         <v>-31</v>
       </c>
-      <c r="M388" s="5">
-        <v>0</v>
-      </c>
-      <c r="N388" s="5">
-        <v>0</v>
-      </c>
-      <c r="O388" s="5" t="s">
+      <c r="M388" s="21">
+        <v>0</v>
+      </c>
+      <c r="N388" s="21">
+        <v>0</v>
+      </c>
+      <c r="O388" s="21" t="s">
         <v>1154</v>
       </c>
-      <c r="P388" s="5">
+      <c r="P388" s="21">
         <v>4800</v>
       </c>
-      <c r="Q388" s="5" t="s">
+      <c r="Q388" s="21" t="s">
         <v>1158</v>
       </c>
-      <c r="R388" s="10" t="s">
+      <c r="R388" s="39" t="s">
         <v>1164</v>
       </c>
-      <c r="W388" s="5" t="s">
+      <c r="W388" s="21" t="s">
         <v>1167</v>
       </c>
-      <c r="X388" s="5">
+      <c r="X388" s="21">
         <v>9999999</v>
       </c>
-      <c r="Y388" s="5">
-        <v>1608595200</v>
-      </c>
-      <c r="Z388" s="5">
-        <v>1609171199</v>
-      </c>
-      <c r="AA388" s="5">
+      <c r="Y388" s="21">
+        <v>1615248000</v>
+      </c>
+      <c r="Z388" s="21">
+        <v>1615823999</v>
+      </c>
+      <c r="AA388" s="21">
         <v>44</v>
       </c>
-      <c r="AH388" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI388" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL388" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM388" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="5">
+      <c r="AH388" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI388" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL388" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM388" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="21">
         <v>388</v>
       </c>
-      <c r="B389" s="5">
+      <c r="B389" s="21">
         <v>10305</v>
       </c>
-      <c r="F389" s="5">
-        <v>1</v>
-      </c>
-      <c r="G389" s="5" t="s">
+      <c r="F389" s="21">
+        <v>1</v>
+      </c>
+      <c r="G389" s="21" t="s">
         <v>1138</v>
       </c>
-      <c r="I389" s="5" t="s">
+      <c r="I389" s="21" t="s">
         <v>1143</v>
       </c>
-      <c r="J389" s="5" t="s">
+      <c r="J389" s="21" t="s">
         <v>1148</v>
       </c>
-      <c r="L389" s="5">
+      <c r="L389" s="21">
         <v>-31</v>
       </c>
-      <c r="M389" s="5">
-        <v>0</v>
-      </c>
-      <c r="N389" s="5">
-        <v>0</v>
-      </c>
-      <c r="O389" s="5" t="s">
+      <c r="M389" s="21">
+        <v>0</v>
+      </c>
+      <c r="N389" s="21">
+        <v>0</v>
+      </c>
+      <c r="O389" s="21" t="s">
         <v>1154</v>
       </c>
-      <c r="P389" s="5">
+      <c r="P389" s="21">
         <v>4800</v>
       </c>
-      <c r="Q389" s="5" t="s">
+      <c r="Q389" s="21" t="s">
         <v>1159</v>
       </c>
-      <c r="R389" s="10" t="s">
+      <c r="R389" s="39" t="s">
         <v>1775</v>
       </c>
-      <c r="W389" s="5" t="s">
+      <c r="W389" s="21" t="s">
         <v>1167</v>
       </c>
-      <c r="X389" s="5">
+      <c r="X389" s="21">
         <v>9999999</v>
       </c>
-      <c r="Y389" s="5">
-        <v>1608595200</v>
-      </c>
-      <c r="Z389" s="5">
-        <v>1609171199</v>
-      </c>
-      <c r="AA389" s="5">
+      <c r="Y389" s="21">
+        <v>1615248000</v>
+      </c>
+      <c r="Z389" s="21">
+        <v>1615823999</v>
+      </c>
+      <c r="AA389" s="21">
         <v>45</v>
       </c>
-      <c r="AH389" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI389" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL389" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM389" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="5">
+      <c r="AH389" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI389" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL389" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM389" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="21">
         <v>389</v>
       </c>
-      <c r="B390" s="5">
+      <c r="B390" s="21">
         <v>10306</v>
       </c>
-      <c r="F390" s="5">
-        <v>1</v>
-      </c>
-      <c r="G390" s="5" t="s">
+      <c r="F390" s="21">
+        <v>1</v>
+      </c>
+      <c r="G390" s="21" t="s">
         <v>1139</v>
       </c>
-      <c r="I390" s="5" t="s">
+      <c r="I390" s="21" t="s">
         <v>1143</v>
       </c>
-      <c r="J390" s="5" t="s">
+      <c r="J390" s="21" t="s">
         <v>1149</v>
       </c>
-      <c r="L390" s="5">
+      <c r="L390" s="21">
         <v>-31</v>
       </c>
-      <c r="M390" s="5">
-        <v>0</v>
-      </c>
-      <c r="N390" s="5">
-        <v>0</v>
-      </c>
-      <c r="O390" s="5" t="s">
+      <c r="M390" s="21">
+        <v>0</v>
+      </c>
+      <c r="N390" s="21">
+        <v>0</v>
+      </c>
+      <c r="O390" s="21" t="s">
         <v>1154</v>
       </c>
-      <c r="P390" s="5">
+      <c r="P390" s="21">
         <v>9800</v>
       </c>
-      <c r="Q390" s="5" t="s">
+      <c r="Q390" s="21" t="s">
         <v>1160</v>
       </c>
-      <c r="R390" s="10" t="s">
+      <c r="R390" s="39" t="s">
         <v>1776</v>
       </c>
-      <c r="W390" s="5" t="s">
+      <c r="W390" s="21" t="s">
         <v>1167</v>
       </c>
-      <c r="X390" s="5">
+      <c r="X390" s="21">
         <v>9999999</v>
       </c>
-      <c r="Y390" s="5">
-        <v>1608595200</v>
-      </c>
-      <c r="Z390" s="5">
-        <v>1609171199</v>
-      </c>
-      <c r="AA390" s="5">
+      <c r="Y390" s="21">
+        <v>1615248000</v>
+      </c>
+      <c r="Z390" s="21">
+        <v>1615823999</v>
+      </c>
+      <c r="AA390" s="21">
         <v>45</v>
       </c>
-      <c r="AH390" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI390" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL390" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM390" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="5">
+      <c r="AH390" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI390" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL390" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM390" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="21">
         <v>390</v>
       </c>
-      <c r="B391" s="5">
+      <c r="B391" s="21">
         <v>10307</v>
       </c>
-      <c r="F391" s="5">
-        <v>1</v>
-      </c>
-      <c r="G391" s="5" t="s">
+      <c r="F391" s="21">
+        <v>1</v>
+      </c>
+      <c r="G391" s="21" t="s">
         <v>1140</v>
       </c>
-      <c r="I391" s="5" t="s">
+      <c r="I391" s="21" t="s">
         <v>1143</v>
       </c>
-      <c r="J391" s="5" t="s">
+      <c r="J391" s="21" t="s">
         <v>1150</v>
       </c>
-      <c r="L391" s="5">
+      <c r="L391" s="21">
         <v>-31</v>
       </c>
-      <c r="M391" s="5">
-        <v>0</v>
-      </c>
-      <c r="N391" s="5">
-        <v>0</v>
-      </c>
-      <c r="O391" s="5" t="s">
+      <c r="M391" s="21">
+        <v>0</v>
+      </c>
+      <c r="N391" s="21">
+        <v>0</v>
+      </c>
+      <c r="O391" s="21" t="s">
         <v>1154</v>
       </c>
-      <c r="P391" s="5">
+      <c r="P391" s="21">
         <v>19800</v>
       </c>
-      <c r="Q391" s="5" t="s">
+      <c r="Q391" s="21" t="s">
         <v>1161</v>
       </c>
-      <c r="R391" s="10" t="s">
+      <c r="R391" s="39" t="s">
         <v>1777</v>
       </c>
-      <c r="W391" s="5" t="s">
+      <c r="W391" s="21" t="s">
         <v>1167</v>
       </c>
-      <c r="X391" s="5">
+      <c r="X391" s="21">
         <v>9999999</v>
       </c>
-      <c r="Y391" s="5">
-        <v>1608595200</v>
-      </c>
-      <c r="Z391" s="5">
-        <v>1609171199</v>
-      </c>
-      <c r="AA391" s="5">
+      <c r="Y391" s="21">
+        <v>1615248000</v>
+      </c>
+      <c r="Z391" s="21">
+        <v>1615823999</v>
+      </c>
+      <c r="AA391" s="21">
         <v>45</v>
       </c>
-      <c r="AH391" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI391" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL391" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM391" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="5">
+      <c r="AH391" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI391" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL391" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM391" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="21">
         <v>391</v>
       </c>
-      <c r="B392" s="5">
+      <c r="B392" s="21">
         <v>10308</v>
       </c>
-      <c r="F392" s="5">
-        <v>1</v>
-      </c>
-      <c r="G392" s="5" t="s">
+      <c r="F392" s="21">
+        <v>1</v>
+      </c>
+      <c r="G392" s="21" t="s">
         <v>1138</v>
       </c>
-      <c r="I392" s="5" t="s">
+      <c r="I392" s="21" t="s">
         <v>1144</v>
       </c>
-      <c r="J392" s="5" t="s">
+      <c r="J392" s="21" t="s">
         <v>1151</v>
       </c>
-      <c r="L392" s="5">
+      <c r="L392" s="21">
         <v>-31</v>
       </c>
-      <c r="M392" s="5">
-        <v>0</v>
-      </c>
-      <c r="N392" s="5">
-        <v>0</v>
-      </c>
-      <c r="O392" s="5" t="s">
+      <c r="M392" s="21">
+        <v>0</v>
+      </c>
+      <c r="N392" s="21">
+        <v>0</v>
+      </c>
+      <c r="O392" s="21" t="s">
         <v>1154</v>
       </c>
-      <c r="P392" s="5">
+      <c r="P392" s="21">
         <v>9800</v>
       </c>
-      <c r="Q392" s="5" t="s">
+      <c r="Q392" s="21" t="s">
         <v>1156</v>
       </c>
-      <c r="R392" s="10" t="s">
+      <c r="R392" s="39" t="s">
         <v>1776</v>
       </c>
-      <c r="W392" s="5" t="s">
+      <c r="W392" s="21" t="s">
         <v>1167</v>
       </c>
-      <c r="X392" s="5">
+      <c r="X392" s="21">
         <v>9999999</v>
       </c>
-      <c r="Y392" s="5">
-        <v>1608595200</v>
-      </c>
-      <c r="Z392" s="5">
-        <v>1609171199</v>
-      </c>
-      <c r="AA392" s="5">
+      <c r="Y392" s="21">
+        <v>1615248000</v>
+      </c>
+      <c r="Z392" s="21">
+        <v>1615823999</v>
+      </c>
+      <c r="AA392" s="21">
         <v>46</v>
       </c>
-      <c r="AH392" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI392" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL392" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM392" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A393" s="5">
+      <c r="AH392" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI392" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL392" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM392" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="21">
         <v>392</v>
       </c>
-      <c r="B393" s="5">
+      <c r="B393" s="21">
         <v>10309</v>
       </c>
-      <c r="F393" s="5">
-        <v>1</v>
-      </c>
-      <c r="G393" s="5" t="s">
+      <c r="F393" s="21">
+        <v>1</v>
+      </c>
+      <c r="G393" s="21" t="s">
         <v>1139</v>
       </c>
-      <c r="I393" s="5" t="s">
+      <c r="I393" s="21" t="s">
         <v>1144</v>
       </c>
-      <c r="J393" s="5" t="s">
+      <c r="J393" s="21" t="s">
         <v>1152</v>
       </c>
-      <c r="L393" s="5">
+      <c r="L393" s="21">
         <v>-31</v>
       </c>
-      <c r="M393" s="5">
-        <v>0</v>
-      </c>
-      <c r="N393" s="5">
-        <v>0</v>
-      </c>
-      <c r="O393" s="5" t="s">
+      <c r="M393" s="21">
+        <v>0</v>
+      </c>
+      <c r="N393" s="21">
+        <v>0</v>
+      </c>
+      <c r="O393" s="21" t="s">
         <v>1154</v>
       </c>
-      <c r="P393" s="5">
+      <c r="P393" s="21">
         <v>19800</v>
       </c>
-      <c r="Q393" s="5" t="s">
+      <c r="Q393" s="21" t="s">
         <v>1162</v>
       </c>
-      <c r="R393" s="10" t="s">
+      <c r="R393" s="39" t="s">
         <v>1165</v>
       </c>
-      <c r="W393" s="5" t="s">
+      <c r="W393" s="21" t="s">
         <v>1167</v>
       </c>
-      <c r="X393" s="5">
+      <c r="X393" s="21">
         <v>9999999</v>
       </c>
-      <c r="Y393" s="5">
-        <v>1608595200</v>
-      </c>
-      <c r="Z393" s="5">
-        <v>1609171199</v>
-      </c>
-      <c r="AA393" s="5">
+      <c r="Y393" s="21">
+        <v>1615248000</v>
+      </c>
+      <c r="Z393" s="21">
+        <v>1615823999</v>
+      </c>
+      <c r="AA393" s="21">
         <v>46</v>
       </c>
-      <c r="AH393" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI393" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL393" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM393" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A394" s="5">
+      <c r="AH393" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI393" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL393" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM393" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="21">
         <v>393</v>
       </c>
-      <c r="B394" s="5">
+      <c r="B394" s="21">
         <v>10310</v>
       </c>
-      <c r="F394" s="5">
-        <v>1</v>
-      </c>
-      <c r="G394" s="5" t="s">
+      <c r="F394" s="21">
+        <v>1</v>
+      </c>
+      <c r="G394" s="21" t="s">
         <v>1140</v>
       </c>
-      <c r="I394" s="5" t="s">
+      <c r="I394" s="21" t="s">
         <v>1144</v>
       </c>
-      <c r="J394" s="5" t="s">
+      <c r="J394" s="21" t="s">
         <v>1153</v>
       </c>
-      <c r="L394" s="5">
+      <c r="L394" s="21">
         <v>-31</v>
       </c>
-      <c r="M394" s="5">
-        <v>0</v>
-      </c>
-      <c r="N394" s="5">
-        <v>0</v>
-      </c>
-      <c r="O394" s="5" t="s">
+      <c r="M394" s="21">
+        <v>0</v>
+      </c>
+      <c r="N394" s="21">
+        <v>0</v>
+      </c>
+      <c r="O394" s="21" t="s">
         <v>1154</v>
       </c>
-      <c r="P394" s="5">
+      <c r="P394" s="21">
         <v>49800</v>
       </c>
-      <c r="Q394" s="5" t="s">
+      <c r="Q394" s="21" t="s">
         <v>1163</v>
       </c>
-      <c r="R394" s="10" t="s">
+      <c r="R394" s="39" t="s">
         <v>1778</v>
       </c>
-      <c r="W394" s="5" t="s">
+      <c r="W394" s="21" t="s">
         <v>1167</v>
       </c>
-      <c r="X394" s="5">
+      <c r="X394" s="21">
         <v>9999999</v>
       </c>
-      <c r="Y394" s="5">
-        <v>1608595200</v>
-      </c>
-      <c r="Z394" s="5">
-        <v>1609171199</v>
-      </c>
-      <c r="AA394" s="5">
+      <c r="Y394" s="21">
+        <v>1615248000</v>
+      </c>
+      <c r="Z394" s="21">
+        <v>1615823999</v>
+      </c>
+      <c r="AA394" s="21">
         <v>46</v>
       </c>
-      <c r="AH394" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI394" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL394" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM394" s="5">
+      <c r="AH394" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI394" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL394" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM394" s="21">
         <v>1</v>
       </c>
     </row>
@@ -36629,7 +36629,7 @@
         <v>10311</v>
       </c>
       <c r="F395" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G395" s="5" t="s">
         <v>1171</v>
@@ -36691,7 +36691,7 @@
         <v>10312</v>
       </c>
       <c r="F396" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G396" s="5" t="s">
         <v>1172</v>
@@ -36753,7 +36753,7 @@
         <v>10313</v>
       </c>
       <c r="F397" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G397" s="5" t="s">
         <v>300</v>
@@ -36815,7 +36815,7 @@
         <v>10314</v>
       </c>
       <c r="F398" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G398" s="5" t="s">
         <v>303</v>
@@ -36877,7 +36877,7 @@
         <v>10315</v>
       </c>
       <c r="F399" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G399" s="5" t="s">
         <v>1173</v>
@@ -36939,7 +36939,7 @@
         <v>10316</v>
       </c>
       <c r="F400" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G400" s="5" t="s">
         <v>1174</v>
@@ -37001,7 +37001,7 @@
         <v>10317</v>
       </c>
       <c r="F401" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G401" s="5" t="s">
         <v>1189</v>
@@ -37066,7 +37066,7 @@
         <v>10318</v>
       </c>
       <c r="F402" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G402" s="5" t="s">
         <v>1193</v>
@@ -37131,7 +37131,7 @@
         <v>10319</v>
       </c>
       <c r="F403" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G403" s="5" t="s">
         <v>1194</v>
@@ -37196,7 +37196,7 @@
         <v>10320</v>
       </c>
       <c r="F404" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G404" s="5" t="s">
         <v>1197</v>
@@ -37261,7 +37261,7 @@
         <v>10321</v>
       </c>
       <c r="F405" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G405" s="5" t="s">
         <v>1199</v>
@@ -37326,7 +37326,7 @@
         <v>10322</v>
       </c>
       <c r="F406" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G406" s="5" t="s">
         <v>1200</v>
@@ -37391,7 +37391,7 @@
         <v>10323</v>
       </c>
       <c r="F407" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G407" s="5" t="s">
         <v>1202</v>
@@ -48845,7 +48845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>

--- a/config_3.9/shoping_config_cjj.xlsx
+++ b/config_3.9/shoping_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4671" uniqueCount="2123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4678" uniqueCount="2129">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -9017,6 +9017,30 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "fclb_v8v12_002" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币周卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币周卡"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币周卡"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_jbzk_special_item",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9192,7 +9216,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9389,6 +9413,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11847,13 +11874,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN579"/>
+  <dimension ref="A1:AN580"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W375" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H560" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y390" sqref="Y390"/>
+      <selection pane="bottomRight" activeCell="A580" sqref="A580:XFD580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -48830,6 +48857,65 @@
         <v>1</v>
       </c>
       <c r="AM579" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A580" s="5">
+        <v>579</v>
+      </c>
+      <c r="B580" s="6">
+        <v>10496</v>
+      </c>
+      <c r="F580" s="6">
+        <v>1</v>
+      </c>
+      <c r="G580" s="6" t="s">
+        <v>2123</v>
+      </c>
+      <c r="I580" s="6" t="s">
+        <v>2124</v>
+      </c>
+      <c r="J580" s="6" t="s">
+        <v>2125</v>
+      </c>
+      <c r="L580" s="6">
+        <v>-31</v>
+      </c>
+      <c r="M580" s="6">
+        <v>0</v>
+      </c>
+      <c r="N580" s="6">
+        <v>0</v>
+      </c>
+      <c r="O580" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="P580" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q580" s="5" t="s">
+        <v>2126</v>
+      </c>
+      <c r="R580" s="66" t="s">
+        <v>2127</v>
+      </c>
+      <c r="W580" s="6" t="s">
+        <v>2128</v>
+      </c>
+      <c r="X580" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="Y580" s="6">
+        <v>1614643200</v>
+      </c>
+      <c r="Z580" s="6">
+        <v>2552233600</v>
+      </c>
+      <c r="AH580" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI580" s="6">
         <v>1</v>
       </c>
     </row>

--- a/config_3.9/shoping_config_cjj.xlsx
+++ b/config_3.9/shoping_config_cjj.xlsx
@@ -9028,10 +9028,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"金币周卡"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"prop_jbzk_special_item",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -9041,6 +9037,10 @@
   </si>
   <si>
     <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币周卡",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11880,7 +11880,7 @@
       <pane xSplit="7" ySplit="1" topLeftCell="H560" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A580" sqref="A580:XFD580"/>
+      <selection pane="bottomRight" activeCell="J580" sqref="J580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -48877,7 +48877,7 @@
         <v>2124</v>
       </c>
       <c r="J580" s="6" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="L580" s="6">
         <v>-31</v>
@@ -48895,13 +48895,13 @@
         <v>1</v>
       </c>
       <c r="Q580" s="5" t="s">
+        <v>2125</v>
+      </c>
+      <c r="R580" s="66" t="s">
         <v>2126</v>
       </c>
-      <c r="R580" s="66" t="s">
+      <c r="W580" s="6" t="s">
         <v>2127</v>
-      </c>
-      <c r="W580" s="6" t="s">
-        <v>2128</v>
       </c>
       <c r="X580" s="6">
         <v>99999999</v>
